--- a/Freeze/The waffle club 모델링 계획.xlsx
+++ b/Freeze/The waffle club 모델링 계획.xlsx
@@ -588,13 +588,13 @@
   <dimension ref="B2:T20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V15" activeCellId="0" sqref="V15"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6484375" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="5" style="1" width="4.75"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="8.66"/>
   </cols>
@@ -884,7 +884,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13"/>
       <c r="C16" s="31" t="s">
         <v>14</v>
@@ -897,7 +897,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="17"/>

--- a/Freeze/The waffle club 모델링 계획.xlsx
+++ b/Freeze/The waffle club 모델링 계획.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78h\Desktop\3D-Modeling\Freeze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F64BA5-AE4D-44CB-89A1-5F68E0643F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F1B53B-DC7B-4137-9961-4DBD69905117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13500" yWindow="4620" windowWidth="22870" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,7 +215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,179 +635,188 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,605 +1204,605 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="5"/>
-    <col min="4" max="4" width="15.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="4.75" style="5" customWidth="1"/>
-    <col min="21" max="1024" width="8.6640625" style="5"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="4.75" style="1" customWidth="1"/>
+    <col min="21" max="1024" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="6"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="7"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="8"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
         <v>44605</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <v>44606</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <v>44607</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <v>44608</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <v>44609</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <v>44610</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="9">
         <v>44611</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <v>44612</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="8">
         <v>44613</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="8">
         <v>44614</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="8">
         <v>44615</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="8">
         <v>44616</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="8">
         <v>44617</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="9">
         <v>44618</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="10">
         <v>44619</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="11">
         <v>44620</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="45" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="25"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="45" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="45" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="45" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="46" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="47" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="31"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="20"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
     </row>
     <row r="16" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="44" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="16" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="37"/>
     </row>
     <row r="18" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="37"/>
     </row>
     <row r="19" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="49" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="21"/>
     </row>
     <row r="20" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="49" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="21"/>
     </row>
     <row r="21" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="21" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
     </row>
     <row r="22" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="43" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
     </row>
     <row r="23" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="21" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="25"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
     </row>
     <row r="24" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="16" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="53"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="49"/>
     </row>
     <row r="25" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="21" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="53"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="49"/>
     </row>
     <row r="26" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="27" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="27"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="37"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Freeze/The waffle club 모델링 계획.xlsx
+++ b/Freeze/The waffle club 모델링 계획.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78h\Desktop\3D-Modeling\Freeze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F1B53B-DC7B-4137-9961-4DBD69905117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0F8977-9882-4EEB-9DF5-1E6414DB34C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13500" yWindow="4620" windowWidth="22870" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +225,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -789,7 +795,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,19 +819,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,10 +1210,10 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
+      <selection pane="bottomRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1219,24 +1225,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="52"/>
+      <c r="R1" s="55"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="52"/>
+      <c r="R2" s="55"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="52"/>
+      <c r="R3" s="55"/>
       <c r="S3" s="4"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.45">
@@ -1293,10 +1299,10 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="57" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="40" t="s">
@@ -1320,8 +1326,8 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="41" t="s">
         <v>6</v>
       </c>
@@ -1343,8 +1349,8 @@
       <c r="T7" s="21"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="41" t="s">
         <v>7</v>
       </c>
@@ -1366,8 +1372,8 @@
       <c r="T8" s="21"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="41" t="s">
         <v>8</v>
       </c>
@@ -1389,8 +1395,8 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="41" t="s">
         <v>9</v>
       </c>
@@ -1412,8 +1418,8 @@
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="41" t="s">
         <v>10</v>
       </c>
@@ -1435,8 +1441,8 @@
       <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="41" t="s">
         <v>11</v>
       </c>
@@ -1458,8 +1464,8 @@
       <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="42" t="s">
         <v>12</v>
       </c>
@@ -1481,8 +1487,8 @@
       <c r="T13" s="21"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="43" t="s">
         <v>13</v>
       </c>
@@ -1504,8 +1510,8 @@
       <c r="T14" s="27"/>
     </row>
     <row r="15" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="53"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="58" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="44" t="s">
@@ -1529,8 +1535,8 @@
       <c r="T15" s="16"/>
     </row>
     <row r="16" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="53"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="40" t="s">
         <v>19</v>
       </c>
@@ -1552,8 +1558,8 @@
       <c r="T16" s="37"/>
     </row>
     <row r="17" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="53"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
@@ -1567,16 +1573,16 @@
       <c r="L17" s="36"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
-      <c r="O17" s="57"/>
+      <c r="O17" s="52"/>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
-      <c r="T17" s="37"/>
+      <c r="T17" s="52"/>
     </row>
     <row r="18" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="53"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
@@ -1591,15 +1597,15 @@
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="58"/>
+      <c r="P18" s="53"/>
       <c r="Q18" s="35"/>
       <c r="R18" s="36"/>
       <c r="S18" s="36"/>
       <c r="T18" s="37"/>
     </row>
     <row r="19" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="53"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="45" t="s">
         <v>26</v>
       </c>
@@ -1614,15 +1620,14 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="50"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="21"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="50"/>
     </row>
     <row r="20" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="53"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="45" t="s">
         <v>27</v>
       </c>
@@ -1637,15 +1642,15 @@
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="60"/>
+      <c r="P20" s="54"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
       <c r="T20" s="21"/>
     </row>
     <row r="21" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="53"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="17" t="s">
         <v>23</v>
       </c>
@@ -1660,15 +1665,15 @@
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="60"/>
+      <c r="P21" s="54"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
       <c r="T21" s="21"/>
     </row>
     <row r="22" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="53"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="39" t="s">
         <v>22</v>
       </c>
@@ -1683,15 +1688,15 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="59"/>
+      <c r="P22" s="54"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
       <c r="T22" s="21"/>
     </row>
     <row r="23" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="53"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="17" t="s">
         <v>16</v>
       </c>
@@ -1707,14 +1712,14 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
-      <c r="Q23" s="50"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="54"/>
       <c r="T23" s="21"/>
     </row>
     <row r="24" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="53"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
@@ -1730,14 +1735,14 @@
       <c r="N24" s="47"/>
       <c r="O24" s="47"/>
       <c r="P24" s="47"/>
-      <c r="Q24" s="51"/>
+      <c r="Q24" s="19"/>
       <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
+      <c r="S24" s="60"/>
       <c r="T24" s="49"/>
     </row>
     <row r="25" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="53"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
@@ -1753,14 +1758,14 @@
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
       <c r="P25" s="47"/>
-      <c r="Q25" s="51"/>
+      <c r="Q25" s="19"/>
       <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
+      <c r="S25" s="60"/>
       <c r="T25" s="49"/>
     </row>
     <row r="26" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="53"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="23" t="s">
         <v>25</v>
       </c>
@@ -1778,7 +1783,7 @@
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
-      <c r="S26" s="56"/>
+      <c r="S26" s="51"/>
       <c r="T26" s="27"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.45">

--- a/Freeze/The waffle club 모델링 계획.xlsx
+++ b/Freeze/The waffle club 모델링 계획.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78h\Desktop\3D-Modeling\Freeze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0F8977-9882-4EEB-9DF5-1E6414DB34C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705794B4-4882-430A-B02B-D2FB78B89D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="4620" windowWidth="22870" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11680" yWindow="3860" windowWidth="22870" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>작업 예정</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>영업상황 네온</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주방 분리 천장 벽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞, 뒷문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>창문, 틀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +176,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,12 +227,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -231,6 +237,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -626,10 +644,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -641,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,9 +691,6 @@
     <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,9 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,9 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,9 +730,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,9 +757,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,16 +790,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,6 +802,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,10 +820,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,45 +1286,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ27"/>
+  <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="R15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U19" sqref="U19"/>
+      <selection pane="bottomRight" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="3" width="8.6640625" style="1"/>
     <col min="4" max="4" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="4.75" style="1" customWidth="1"/>
-    <col min="21" max="1024" width="8.6640625" style="1"/>
+    <col min="5" max="11" width="4.75" style="1" customWidth="1"/>
+    <col min="12" max="29" width="5" style="1" customWidth="1"/>
+    <col min="30" max="1024" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q1" s="55" t="s">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="Q1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="55"/>
+      <c r="R1" s="50"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q2" s="55" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="Q2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="55"/>
+      <c r="R2" s="50"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q3" s="55" t="s">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="Q3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="55"/>
+      <c r="R3" s="50"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1294,529 +1375,850 @@
       <c r="S5" s="10">
         <v>44619</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="70">
         <v>44620</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B6" s="56" t="s">
+      <c r="U5" s="74">
+        <v>44621</v>
+      </c>
+      <c r="V5" s="75">
+        <v>44622</v>
+      </c>
+      <c r="W5" s="75">
+        <v>44623</v>
+      </c>
+      <c r="X5" s="75">
+        <v>44624</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>44625</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>44626</v>
+      </c>
+      <c r="AA5" s="75">
+        <v>44627</v>
+      </c>
+      <c r="AB5" s="75">
+        <v>44628</v>
+      </c>
+      <c r="AC5" s="76">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="41" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="73"/>
+    </row>
+    <row r="7" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="21"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="41" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="66"/>
+    </row>
+    <row r="8" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="41" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="66"/>
+    </row>
+    <row r="9" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="21"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="41" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="66"/>
+    </row>
+    <row r="10" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="41" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="66"/>
+    </row>
+    <row r="11" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="21"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="41" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="66"/>
+    </row>
+    <row r="12" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="21"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="42" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="66"/>
+    </row>
+    <row r="13" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="43" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="66"/>
+    </row>
+    <row r="14" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="27"/>
-    </row>
-    <row r="15" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="56"/>
-      <c r="C15" s="58" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="69"/>
+    </row>
+    <row r="15" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="51"/>
+      <c r="C15" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="16"/>
-    </row>
-    <row r="16" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="56"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="40" t="s">
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="63"/>
+    </row>
+    <row r="16" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="51"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
-    </row>
-    <row r="17" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="56"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="12" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="66"/>
+    </row>
+    <row r="17" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="51"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="52"/>
-    </row>
-    <row r="18" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="56"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="17" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="66"/>
+    </row>
+    <row r="18" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="51"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="37"/>
-    </row>
-    <row r="19" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="56"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="45" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="66"/>
+    </row>
+    <row r="19" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="51"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="50"/>
-    </row>
-    <row r="20" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="56"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="45" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="66"/>
+    </row>
+    <row r="20" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="51"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="21"/>
-    </row>
-    <row r="21" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="56"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="17" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="66"/>
+    </row>
+    <row r="21" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="51"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="56"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="39" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="66"/>
+    </row>
+    <row r="22" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="51"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="21"/>
-    </row>
-    <row r="23" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="56"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="17" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="66"/>
+    </row>
+    <row r="23" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="51"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="21"/>
-    </row>
-    <row r="24" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="56"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="12" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="66"/>
+    </row>
+    <row r="24" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="51"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="49"/>
-    </row>
-    <row r="25" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="56"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="17" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="66"/>
+    </row>
+    <row r="25" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="51"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="49"/>
-    </row>
-    <row r="26" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="56"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="23" t="s">
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="66"/>
+    </row>
+    <row r="26" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="51"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="27"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B27" s="5" t="s">
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="66"/>
+    </row>
+    <row r="27" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="51"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="66"/>
+    </row>
+    <row r="28" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="51"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="66"/>
+    </row>
+    <row r="29" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="51"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="69"/>
+    </row>
+    <row r="30" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B6:B26"/>
+    <mergeCell ref="B6:B29"/>
     <mergeCell ref="C6:C14"/>
-    <mergeCell ref="C15:C26"/>
+    <mergeCell ref="C15:C29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Freeze/The waffle club 모델링 계획.xlsx
+++ b/Freeze/The waffle club 모델링 계획.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78h\Desktop\3D-Modeling\Freeze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0F35B0-B4F7-4289-A392-05D3B993610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB68188C-A7D5-45CE-A6E9-1B92F7C57614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11680" yWindow="3860" windowWidth="22870" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,235 +625,235 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,923 +1244,923 @@
       <pane xSplit="4" ySplit="5" topLeftCell="R16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomRight" activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="5"/>
-    <col min="4" max="4" width="15.75" style="5" customWidth="1"/>
-    <col min="5" max="11" width="4.75" style="5" customWidth="1"/>
-    <col min="12" max="29" width="5" style="5" customWidth="1"/>
-    <col min="30" max="1024" width="8.6640625" style="5"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="11" width="4.75" style="1" customWidth="1"/>
+    <col min="12" max="29" width="5" style="1" customWidth="1"/>
+    <col min="30" max="1024" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="6"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="7"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="8"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
         <v>44605</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <v>44606</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <v>44607</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <v>44608</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <v>44609</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <v>44610</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="9">
         <v>44611</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <v>44612</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="8">
         <v>44613</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="8">
         <v>44614</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="8">
         <v>44615</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="8">
         <v>44616</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="8">
         <v>44617</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="9">
         <v>44618</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="10">
         <v>44619</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="11">
         <v>44620</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="12">
         <v>44621</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="13">
         <v>44622</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="13">
         <v>44623</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="13">
         <v>44624</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Y5" s="9">
         <v>44625</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="10">
         <v>44626</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="13">
         <v>44627</v>
       </c>
-      <c r="AB5" s="17">
+      <c r="AB5" s="13">
         <v>44628</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="14">
         <v>44629</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="26"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="22"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="34"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="30"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="34"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="30"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="34"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="30"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="34"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="30"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="30"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="34"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="30"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="36" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="34"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="30"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="44"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="40"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="49"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="45"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="34"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="30"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="54" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="34"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="30"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="57" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="34"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="30"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="59" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="34"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="30"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="59" t="s">
+      <c r="B20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="34"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="30"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="57" t="s">
+      <c r="B21" s="74"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="34"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="30"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="62" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="34"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="30"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="57" t="s">
+      <c r="B23" s="74"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="34"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="30"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="54" t="s">
+      <c r="B24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="34"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="30"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="57" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="34"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="30"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="54" t="s">
+      <c r="B26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="34"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="30"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="54" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="34"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="30"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="34"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="30"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="70" t="s">
+      <c r="B29" s="74"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="44"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="40"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="76"/>
-      <c r="AB30" s="76"/>
-      <c r="AC30" s="76"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="6">
